--- a/data/trans_camb/P6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P6-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,21</t>
+          <t>-1,88; 4,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,47</t>
+          <t>-1,69; 4,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 6,41</t>
+          <t>-1,08; 4,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,99</t>
+          <t>-2,83; 2,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 7,13</t>
+          <t>-3,73; 1,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,17</t>
+          <t>-2,77; 3,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,55</t>
+          <t>-1,6; 2,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,98</t>
+          <t>-2,13; 2,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,41</t>
+          <t>-0,82; 3,29</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,88%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>13,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 138,35</t>
+          <t>-23,07; 92,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 153,66</t>
+          <t>-22,37; 77,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 122,15</t>
+          <t>-15,51; 92,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 78,59</t>
+          <t>-26,79; 33,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 92,09</t>
+          <t>-35,13; 23,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 77,61</t>
+          <t>-26,32; 42,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 77,77</t>
+          <t>-17,86; 37,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,51; 97,65</t>
+          <t>-24,2; 30,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 76,56</t>
+          <t>-9,95; 45,61</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 11,19</t>
+          <t>-3,04; 2,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 7,62</t>
+          <t>-2,61; 3,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,09</t>
+          <t>-1,25; 4,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,17</t>
+          <t>-2,65; 3,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,23</t>
+          <t>-1,75; 5,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,1</t>
+          <t>0,69; 8,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,72</t>
+          <t>-1,8; 2,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,75</t>
+          <t>-1,59; 2,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,78</t>
+          <t>0,66; 5,92</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>68,07%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>83,72%</t>
+          <t>44,41%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 241,57</t>
+          <t>-42,22; 62,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 167,64</t>
+          <t>-37,43; 72,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 181,77</t>
+          <t>-19,32; 111,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 97,96</t>
+          <t>-30,74; 60,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 192,8</t>
+          <t>-21,01; 78,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,13; 189,92</t>
+          <t>5,66; 126,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 108,86</t>
+          <t>-24,06; 43,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,89; 150,93</t>
+          <t>-20,91; 51,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,03; 158,62</t>
+          <t>7,41; 101,58</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>3,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 12,34</t>
+          <t>-7,47; 7,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 19,58</t>
+          <t>-5,41; 9,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 12,25</t>
+          <t>-5,15; 10,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 7,02</t>
+          <t>-5,13; 5,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 14,49</t>
+          <t>-3,9; 7,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 15,48</t>
+          <t>-1,68; 10,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 7,21</t>
+          <t>-4,71; 3,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 14,29</t>
+          <t>-3,11; 5,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 11,34</t>
+          <t>-1,68; 8,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>108,63%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>120,61%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>102,13%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>80,14%</t>
+          <t>45,47%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 205,94</t>
+          <t>-60,08; 148,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 359,01</t>
+          <t>-48,48; 188,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 216,29</t>
+          <t>-43,17; 199,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,48; 196,78</t>
+          <t>-64,45; 152,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 369,16</t>
+          <t>-46,41; 202,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 398,68</t>
+          <t>-26,03; 305,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 133,22</t>
+          <t>-48,32; 71,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 260,07</t>
+          <t>-34,46; 113,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 210,33</t>
+          <t>-19,27; 141,63</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,59</t>
+          <t>-1,37; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,58</t>
+          <t>-1,07; 2,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,0</t>
+          <t>-0,37; 3,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,58</t>
+          <t>-1,91; 2,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,08</t>
+          <t>-1,9; 1,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,73</t>
+          <t>0,34; 4,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,62</t>
+          <t>-1,05; 1,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,99</t>
+          <t>-0,84; 1,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,06</t>
+          <t>0,6; 3,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>64,72%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>28,46%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,29; 115,29</t>
+          <t>-18,46; 55,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,03; 135,69</t>
+          <t>-14,78; 51,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,28; 106,58</t>
+          <t>-4,77; 68,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 60,57</t>
+          <t>-21,15; 32,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,94; 112,4</t>
+          <t>-21,52; 25,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,25; 103,11</t>
+          <t>3,1; 66,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,02; 68,62</t>
+          <t>-12,96; 29,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,38; 104,76</t>
+          <t>-10,64; 29,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,91; 89,26</t>
+          <t>7,52; 52,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
